--- a/Лічильники/Таблиця споживання енергоносіїв/Потижнево/Таб. спож. ен. 2023 січень.xlsx
+++ b/Лічильники/Таблиця споживання енергоносіїв/Потижнево/Таб. спож. ен. 2023 січень.xlsx
@@ -1,23 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="01 - 08" sheetId="1" r:id="rId1"/>
-    <sheet name="09 -  15" sheetId="2" r:id="rId2"/>
-    <sheet name="16 - 22" sheetId="3" r:id="rId3"/>
-    <sheet name="23 - 31" sheetId="4" r:id="rId4"/>
+    <sheet name="01 -  15" sheetId="2" r:id="rId2"/>
+    <sheet name="01 - 22" sheetId="3" r:id="rId3"/>
+    <sheet name="01 - 29" sheetId="5" r:id="rId4"/>
+    <sheet name="01 - 31" sheetId="4" r:id="rId5"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId6"/>
+  </externalReferences>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="15">
   <si>
     <t>Водопостачання м3</t>
   </si>
@@ -49,18 +53,6 @@
     <t>Бережницький СО</t>
   </si>
   <si>
-    <t>Таблиця споживання енергоносіїв за четвертий тиждень грудня 2022 р.</t>
-  </si>
-  <si>
-    <t>Таблиця споживання енергоносіїв за третій тиждень грудня 2022 р.</t>
-  </si>
-  <si>
-    <t>Таблиця споживання енергоносіїв за 12 - 18  грудня 2022 р.</t>
-  </si>
-  <si>
-    <t>Таблиця споживання енергоносіїв за 01 - 08 січня 2023рік</t>
-  </si>
-  <si>
     <t>Факт2023</t>
   </si>
   <si>
@@ -68,6 +60,12 @@
   </si>
   <si>
     <t>Ліміт2023</t>
+  </si>
+  <si>
+    <t>Таблиця споживання енергоносіїв за січень 2023 р.</t>
+  </si>
+  <si>
+    <t>Таблиця споживання енергоносіїв за січень 2023 рік</t>
   </si>
 </sst>
 </file>
@@ -102,7 +100,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -125,11 +123,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="16" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -154,6 +172,12 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -172,6 +196,62 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="11.21"/>
+      <sheetName val="12.21"/>
+      <sheetName val="1.22"/>
+      <sheetName val="2.22"/>
+      <sheetName val="3.22"/>
+      <sheetName val="4.22"/>
+      <sheetName val="5.22"/>
+      <sheetName val="6.22"/>
+      <sheetName val="7.22"/>
+      <sheetName val="8.22"/>
+      <sheetName val="9.22"/>
+      <sheetName val="10.22"/>
+      <sheetName val="11.22"/>
+      <sheetName val="12.22"/>
+      <sheetName val="1.23"/>
+      <sheetName val="2.23"/>
+      <sheetName val="Лист3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16">
+        <row r="456">
+          <cell r="F456">
+            <v>1102</v>
+          </cell>
+        </row>
+        <row r="458">
+          <cell r="F458">
+            <v>1224</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -461,10 +541,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:K26"/>
+  <dimension ref="A2:M26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -478,36 +558,36 @@
     <col min="10" max="10" width="16.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="C2" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C2" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
       <c r="G5" s="1"/>
-      <c r="H5" s="10" t="s">
+      <c r="H5" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>7</v>
       </c>
@@ -530,19 +610,19 @@
         <v>4</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="K6" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
@@ -558,17 +638,18 @@
         <v>361</v>
       </c>
       <c r="I7" s="7">
-        <v>354</v>
+        <v>623</v>
       </c>
       <c r="J7" s="7">
         <f>G7-I7</f>
-        <v>181</v>
+        <v>-88</v>
       </c>
       <c r="K7" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+        <v>-26</v>
+      </c>
+      <c r="M7" s="10"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -581,7 +662,7 @@
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -594,7 +675,7 @@
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -607,7 +688,7 @@
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -620,7 +701,7 @@
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -633,7 +714,7 @@
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -646,7 +727,7 @@
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -659,7 +740,7 @@
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -672,7 +753,7 @@
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -833,7 +914,7 @@
   <dimension ref="A2:K26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="C2" sqref="C2:J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -848,32 +929,32 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="C2" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
+      <c r="C2" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
       <c r="G5" s="1"/>
-      <c r="H5" s="10" t="s">
+      <c r="H5" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
       <c r="K5" s="1"/>
     </row>
     <row r="6" spans="1:11" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -899,13 +980,13 @@
         <v>4</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="K6" s="6" t="s">
         <v>6</v>
@@ -921,17 +1002,17 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="7">
-        <v>325</v>
+        <v>860</v>
       </c>
       <c r="H7" s="7">
-        <v>316</v>
+        <v>677</v>
       </c>
       <c r="I7" s="7">
-        <v>224</v>
+        <v>269</v>
       </c>
       <c r="J7" s="7">
         <f>G7-I7</f>
-        <v>101</v>
+        <v>591</v>
       </c>
       <c r="K7" s="7">
         <v>0</v>
@@ -1198,10 +1279,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:K26"/>
+  <dimension ref="A2:M26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="C2" sqref="C2:J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1212,36 +1293,36 @@
     <col min="11" max="11" width="10.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="C2" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C2" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
       <c r="G5" s="1"/>
-      <c r="H5" s="10" t="s">
+      <c r="H5" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>7</v>
       </c>
@@ -1264,19 +1345,19 @@
         <v>4</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="K6" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
@@ -1286,20 +1367,754 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="7">
-        <v>363</v>
+        <v>1233</v>
       </c>
       <c r="H7" s="7">
-        <v>316</v>
+        <v>993</v>
       </c>
       <c r="I7" s="7">
-        <v>238</v>
+        <v>870</v>
       </c>
       <c r="J7" s="7">
         <f>G7-I7</f>
-        <v>125</v>
+        <v>363</v>
       </c>
       <c r="K7" s="7">
+        <v>-71</v>
+      </c>
+      <c r="M7" s="10"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" s="2"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" s="2"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" s="2"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" s="2"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" s="2"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" s="2"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" s="2"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" s="2"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" s="2"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="2"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="2"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="2"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="2"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="2"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="2"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="2"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="2"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="2"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C2:J2"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="H5:J5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:L26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:J2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.21875" customWidth="1"/>
+    <col min="7" max="7" width="10" customWidth="1"/>
+    <col min="8" max="8" width="10.88671875" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" customWidth="1"/>
+    <col min="10" max="10" width="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C2" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="12" t="s">
         <v>0</v>
+      </c>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="7">
+        <v>1282</v>
+      </c>
+      <c r="H7" s="7">
+        <v>1309</v>
+      </c>
+      <c r="I7" s="7">
+        <f>[1]Лист3!$F$456</f>
+        <v>1102</v>
+      </c>
+      <c r="J7" s="7">
+        <f>G7-I7</f>
+        <v>180</v>
+      </c>
+      <c r="K7" s="7">
+        <v>-93</v>
+      </c>
+      <c r="L7" s="11"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="2"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="2"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="2"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="2"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="2"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" s="2"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" s="2"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" s="2"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" s="2"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="2"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="2"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="2"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="2"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="2"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="2"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="2"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="2"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="2"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C2:J2"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="H5:J5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:K26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:J2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.77734375" customWidth="1"/>
+    <col min="2" max="10" width="10.77734375" customWidth="1"/>
+    <col min="11" max="11" width="11.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C2" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="7">
+        <v>1442</v>
+      </c>
+      <c r="H7" s="7">
+        <v>1400</v>
+      </c>
+      <c r="I7" s="7">
+        <f>[1]Лист3!$F$458</f>
+        <v>1224</v>
+      </c>
+      <c r="J7" s="7">
+        <f>G7-I7</f>
+        <v>218</v>
+      </c>
+      <c r="K7" s="7">
+        <v>-100</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -1559,367 +2374,4 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:K26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="22.77734375" customWidth="1"/>
-    <col min="2" max="11" width="10.77734375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="C2" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="1"/>
-    </row>
-    <row r="6" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="J6" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="K6" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="7">
-        <v>307</v>
-      </c>
-      <c r="H7" s="7">
-        <v>406</v>
-      </c>
-      <c r="I7" s="7">
-        <v>292</v>
-      </c>
-      <c r="J7" s="7">
-        <f>G7-I7</f>
-        <v>15</v>
-      </c>
-      <c r="K7" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="2"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="2"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="2"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="2"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="2"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="2"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="2"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="2"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="2"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="2"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="2"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="2"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="2"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="C2:J2"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="H5:J5"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>